--- a/biology/Zoologie/Echinaster/Echinaster.xlsx
+++ b/biology/Zoologie/Echinaster/Echinaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinaster est un genre d'étoiles de mer (Asteroidea), de la famille des Echinasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles de taille moyenne à grande, pourvues généralement de 5 bras (parfois plus ou légèrement moins) cylindriques, souvent rugueuses au toucher du fait de leur squelette constitué de piquants irréguliers, plus ou moins enfoncés sous l'épiderme[1]. Les bras ne présentent pas de marge distincte entre les faces orale et aborale. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles de taille moyenne à grande, pourvues généralement de 5 bras (parfois plus ou légèrement moins) cylindriques, souvent rugueuses au toucher du fait de leur squelette constitué de piquants irréguliers, plus ou moins enfoncés sous l'épiderme. Les bras ne présentent pas de marge distincte entre les faces orale et aborale. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Echinaster arcystatus
